--- a/node/new_import.xlsx
+++ b/node/new_import.xlsx
@@ -377,7 +377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BB1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
